--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ccl5-Sdc4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ccl5-Sdc4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Sdc4</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6372428978811771</v>
+        <v>0.6472015</v>
       </c>
       <c r="H2">
-        <v>0.6372428978811771</v>
+        <v>1.294403</v>
       </c>
       <c r="I2">
-        <v>0.02361320375102848</v>
+        <v>0.02102898872844592</v>
       </c>
       <c r="J2">
-        <v>0.02361320375102848</v>
+        <v>0.01428114079438904</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.209166423063072</v>
+        <v>0.451749</v>
       </c>
       <c r="N2">
-        <v>0.209166423063072</v>
+        <v>0.903498</v>
       </c>
       <c r="O2">
-        <v>0.00182646371230881</v>
+        <v>0.003821260830374857</v>
       </c>
       <c r="P2">
-        <v>0.00182646371230881</v>
+        <v>0.00287943137621811</v>
       </c>
       <c r="Q2">
-        <v>0.1332898175721523</v>
+        <v>0.2923726304235</v>
       </c>
       <c r="R2">
-        <v>0.1332898175721523</v>
+        <v>1.169490521694</v>
       </c>
       <c r="S2">
-        <v>4.31286597826078E-05</v>
+        <v>8.035725093040478E-05</v>
       </c>
       <c r="T2">
-        <v>4.31286597826078E-05</v>
+        <v>4.112156489155222E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6372428978811771</v>
+        <v>0.6472015</v>
       </c>
       <c r="H3">
-        <v>0.6372428978811771</v>
+        <v>1.294403</v>
       </c>
       <c r="I3">
-        <v>0.02361320375102848</v>
+        <v>0.02102898872844592</v>
       </c>
       <c r="J3">
-        <v>0.02361320375102848</v>
+        <v>0.01428114079438904</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.9188300643417</v>
+        <v>29.738655</v>
       </c>
       <c r="N3">
-        <v>27.9188300643417</v>
+        <v>89.21596500000001</v>
       </c>
       <c r="O3">
-        <v>0.243790228163246</v>
+        <v>0.2515537555136401</v>
       </c>
       <c r="P3">
-        <v>0.243790228163246</v>
+        <v>0.2843296264967678</v>
       </c>
       <c r="Q3">
-        <v>17.79107617565323</v>
+        <v>19.2469021239825</v>
       </c>
       <c r="R3">
-        <v>17.79107617565323</v>
+        <v>115.481412743895</v>
       </c>
       <c r="S3">
-        <v>0.005756668330128448</v>
+        <v>0.00528992108929458</v>
       </c>
       <c r="T3">
-        <v>0.005756668330128448</v>
+        <v>0.00406055142801639</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6372428978811771</v>
+        <v>0.6472015</v>
       </c>
       <c r="H4">
-        <v>0.6372428978811771</v>
+        <v>1.294403</v>
       </c>
       <c r="I4">
-        <v>0.02361320375102848</v>
+        <v>0.02102898872844592</v>
       </c>
       <c r="J4">
-        <v>0.02361320375102848</v>
+        <v>0.01428114079438904</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.8443971128282</v>
+        <v>22.95118433333333</v>
       </c>
       <c r="N4">
-        <v>22.8443971128282</v>
+        <v>68.85355300000001</v>
       </c>
       <c r="O4">
-        <v>0.199479733626134</v>
+        <v>0.194139802641909</v>
       </c>
       <c r="P4">
-        <v>0.199479733626134</v>
+        <v>0.2194349969477482</v>
       </c>
       <c r="Q4">
-        <v>14.55742981652704</v>
+        <v>14.85404092730983</v>
       </c>
       <c r="R4">
-        <v>14.55742981652704</v>
+        <v>89.12424556385901</v>
       </c>
       <c r="S4">
-        <v>0.004710355594314789</v>
+        <v>0.00408256372149942</v>
       </c>
       <c r="T4">
-        <v>0.004710355594314789</v>
+        <v>0.003133782086627121</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6372428978811771</v>
+        <v>0.6472015</v>
       </c>
       <c r="H5">
-        <v>0.6372428978811771</v>
+        <v>1.294403</v>
       </c>
       <c r="I5">
-        <v>0.02361320375102848</v>
+        <v>0.02102898872844592</v>
       </c>
       <c r="J5">
-        <v>0.02361320375102848</v>
+        <v>0.01428114079438904</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.8604766766159</v>
+        <v>23.37486266666667</v>
       </c>
       <c r="N5">
-        <v>22.8604766766159</v>
+        <v>70.124588</v>
       </c>
       <c r="O5">
-        <v>0.1996201421072751</v>
+        <v>0.1977236189200749</v>
       </c>
       <c r="P5">
-        <v>0.1996201421072751</v>
+        <v>0.2234857619292659</v>
       </c>
       <c r="Q5">
-        <v>14.56767640435178</v>
+        <v>15.12824618016067</v>
       </c>
       <c r="R5">
-        <v>14.56767640435178</v>
+        <v>90.76947708096399</v>
       </c>
       <c r="S5">
-        <v>0.004713671088388345</v>
+        <v>0.004157927753617793</v>
       </c>
       <c r="T5">
-        <v>0.004713671088388345</v>
+        <v>0.003191631631653157</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.6372428978811771</v>
+        <v>0.6472015</v>
       </c>
       <c r="H6">
-        <v>0.6372428978811771</v>
+        <v>1.294403</v>
       </c>
       <c r="I6">
-        <v>0.02361320375102848</v>
+        <v>0.02102898872844592</v>
       </c>
       <c r="J6">
-        <v>0.02361320375102848</v>
+        <v>0.01428114079438904</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.14058632203313</v>
+        <v>1.272071333333334</v>
       </c>
       <c r="N6">
-        <v>1.14058632203313</v>
+        <v>3.816214</v>
       </c>
       <c r="O6">
-        <v>0.00995972249007243</v>
+        <v>0.01076021498555478</v>
       </c>
       <c r="P6">
-        <v>0.00995972249007243</v>
+        <v>0.01216220326991628</v>
       </c>
       <c r="Q6">
-        <v>0.7268305331360252</v>
+        <v>0.8232864750403335</v>
       </c>
       <c r="R6">
-        <v>0.7268305331360252</v>
+        <v>4.939718850242</v>
       </c>
       <c r="S6">
-        <v>0.000235180956461781</v>
+        <v>0.0002262764396468864</v>
       </c>
       <c r="T6">
-        <v>0.000235180956461781</v>
+        <v>0.0001736901372676531</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.6372428978811771</v>
+        <v>0.6472015</v>
       </c>
       <c r="H7">
-        <v>0.6372428978811771</v>
+        <v>1.294403</v>
       </c>
       <c r="I7">
-        <v>0.02361320375102848</v>
+        <v>0.02102898872844592</v>
       </c>
       <c r="J7">
-        <v>0.02361320375102848</v>
+        <v>0.01428114079438904</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>39.5464332042761</v>
+        <v>40.4313585</v>
       </c>
       <c r="N7">
-        <v>39.5464332042761</v>
+        <v>80.862717</v>
       </c>
       <c r="O7">
-        <v>0.3453237099009637</v>
+        <v>0.3420013471084464</v>
       </c>
       <c r="P7">
-        <v>0.3453237099009637</v>
+        <v>0.2577079799800835</v>
       </c>
       <c r="Q7">
-        <v>25.2006836959573</v>
+        <v>26.16723586823775</v>
       </c>
       <c r="R7">
-        <v>25.2006836959573</v>
+        <v>104.668943472951</v>
       </c>
       <c r="S7">
-        <v>0.008154199121952506</v>
+        <v>0.00719194247345684</v>
       </c>
       <c r="T7">
-        <v>0.008154199121952506</v>
+        <v>0.003680363945933165</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>2.09633485901022</v>
+        <v>0.8756340000000001</v>
       </c>
       <c r="H8">
-        <v>2.09633485901022</v>
+        <v>2.626902</v>
       </c>
       <c r="I8">
-        <v>0.07768024142879044</v>
+        <v>0.02845125902248994</v>
       </c>
       <c r="J8">
-        <v>0.07768024142879044</v>
+        <v>0.02898259453590742</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.209166423063072</v>
+        <v>0.451749</v>
       </c>
       <c r="N8">
-        <v>0.209166423063072</v>
+        <v>0.903498</v>
       </c>
       <c r="O8">
-        <v>0.00182646371230881</v>
+        <v>0.003821260830374857</v>
       </c>
       <c r="P8">
-        <v>0.00182646371230881</v>
+        <v>0.00287943137621811</v>
       </c>
       <c r="Q8">
-        <v>0.4384828640015971</v>
+        <v>0.3955667838660001</v>
       </c>
       <c r="R8">
-        <v>0.4384828640015971</v>
+        <v>2.373400703196</v>
       </c>
       <c r="S8">
-        <v>0.0001418801421330732</v>
+        <v>0.00010871968167749</v>
       </c>
       <c r="T8">
-        <v>0.0001418801421330732</v>
+        <v>8.345339207089935E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>2.09633485901022</v>
+        <v>0.8756340000000001</v>
       </c>
       <c r="H9">
-        <v>2.09633485901022</v>
+        <v>2.626902</v>
       </c>
       <c r="I9">
-        <v>0.07768024142879044</v>
+        <v>0.02845125902248994</v>
       </c>
       <c r="J9">
-        <v>0.07768024142879044</v>
+        <v>0.02898259453590742</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.9188300643417</v>
+        <v>29.738655</v>
       </c>
       <c r="N9">
-        <v>27.9188300643417</v>
+        <v>89.21596500000001</v>
       </c>
       <c r="O9">
-        <v>0.243790228163246</v>
+        <v>0.2515537555136401</v>
       </c>
       <c r="P9">
-        <v>0.243790228163246</v>
+        <v>0.2843296264967678</v>
       </c>
       <c r="Q9">
-        <v>58.52721668666205</v>
+        <v>26.04017743227001</v>
       </c>
       <c r="R9">
-        <v>58.52721668666205</v>
+        <v>234.3615968904301</v>
       </c>
       <c r="S9">
-        <v>0.01893768378170085</v>
+        <v>0.007157021056198682</v>
       </c>
       <c r="T9">
-        <v>0.01893768378170085</v>
+        <v>0.008240610279301818</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>2.09633485901022</v>
+        <v>0.8756340000000001</v>
       </c>
       <c r="H10">
-        <v>2.09633485901022</v>
+        <v>2.626902</v>
       </c>
       <c r="I10">
-        <v>0.07768024142879044</v>
+        <v>0.02845125902248994</v>
       </c>
       <c r="J10">
-        <v>0.07768024142879044</v>
+        <v>0.02898259453590742</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.8443971128282</v>
+        <v>22.95118433333333</v>
       </c>
       <c r="N10">
-        <v>22.8443971128282</v>
+        <v>68.85355300000001</v>
       </c>
       <c r="O10">
-        <v>0.199479733626134</v>
+        <v>0.194139802641909</v>
       </c>
       <c r="P10">
-        <v>0.199479733626134</v>
+        <v>0.2194349969477482</v>
       </c>
       <c r="Q10">
-        <v>47.88950600069418</v>
+        <v>20.096837342534</v>
       </c>
       <c r="R10">
-        <v>47.88950600069418</v>
+        <v>180.871536082806</v>
       </c>
       <c r="S10">
-        <v>0.0154956338682289</v>
+        <v>0.005523521811540029</v>
       </c>
       <c r="T10">
-        <v>0.0154956338682289</v>
+        <v>0.006359795543524666</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>2.09633485901022</v>
+        <v>0.8756340000000001</v>
       </c>
       <c r="H11">
-        <v>2.09633485901022</v>
+        <v>2.626902</v>
       </c>
       <c r="I11">
-        <v>0.07768024142879044</v>
+        <v>0.02845125902248994</v>
       </c>
       <c r="J11">
-        <v>0.07768024142879044</v>
+        <v>0.02898259453590742</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>22.8604766766159</v>
+        <v>23.37486266666667</v>
       </c>
       <c r="N11">
-        <v>22.8604766766159</v>
+        <v>70.124588</v>
       </c>
       <c r="O11">
-        <v>0.1996201421072751</v>
+        <v>0.1977236189200749</v>
       </c>
       <c r="P11">
-        <v>0.1996201421072751</v>
+        <v>0.2234857619292659</v>
       </c>
       <c r="Q11">
-        <v>47.92321415078001</v>
+        <v>20.467824496264</v>
       </c>
       <c r="R11">
-        <v>47.92321415078001</v>
+        <v>184.210420466376</v>
       </c>
       <c r="S11">
-        <v>0.01550654083294258</v>
+        <v>0.005625485896759144</v>
       </c>
       <c r="T11">
-        <v>0.01550654083294258</v>
+        <v>0.006477197222544249</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>2.09633485901022</v>
+        <v>0.8756340000000001</v>
       </c>
       <c r="H12">
-        <v>2.09633485901022</v>
+        <v>2.626902</v>
       </c>
       <c r="I12">
-        <v>0.07768024142879044</v>
+        <v>0.02845125902248994</v>
       </c>
       <c r="J12">
-        <v>0.07768024142879044</v>
+        <v>0.02898259453590742</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.14058632203313</v>
+        <v>1.272071333333334</v>
       </c>
       <c r="N12">
-        <v>1.14058632203313</v>
+        <v>3.816214</v>
       </c>
       <c r="O12">
-        <v>0.00995972249007243</v>
+        <v>0.01076021498555478</v>
       </c>
       <c r="P12">
-        <v>0.00995972249007243</v>
+        <v>0.01216220326991628</v>
       </c>
       <c r="Q12">
-        <v>2.391050866588307</v>
+        <v>1.113868909892</v>
       </c>
       <c r="R12">
-        <v>2.391050866588307</v>
+        <v>10.024820189028</v>
       </c>
       <c r="S12">
-        <v>0.0007736736475925803</v>
+        <v>0.0003061416636916968</v>
       </c>
       <c r="T12">
-        <v>0.0007736736475925803</v>
+        <v>0.0003524922060352709</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>2.09633485901022</v>
+        <v>0.8756340000000001</v>
       </c>
       <c r="H13">
-        <v>2.09633485901022</v>
+        <v>2.626902</v>
       </c>
       <c r="I13">
-        <v>0.07768024142879044</v>
+        <v>0.02845125902248994</v>
       </c>
       <c r="J13">
-        <v>0.07768024142879044</v>
+        <v>0.02898259453590742</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>39.5464332042761</v>
+        <v>40.4313585</v>
       </c>
       <c r="N13">
-        <v>39.5464332042761</v>
+        <v>80.862717</v>
       </c>
       <c r="O13">
-        <v>0.3453237099009637</v>
+        <v>0.3420013471084464</v>
       </c>
       <c r="P13">
-        <v>0.3453237099009637</v>
+        <v>0.2577079799800835</v>
       </c>
       <c r="Q13">
-        <v>82.90256647564321</v>
+        <v>35.40307216878901</v>
       </c>
       <c r="R13">
-        <v>82.90256647564321</v>
+        <v>212.418433012734</v>
       </c>
       <c r="S13">
-        <v>0.02682482915619245</v>
+        <v>0.009730368912622897</v>
       </c>
       <c r="T13">
-        <v>0.02682482915619245</v>
+        <v>0.007469045892430507</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>21.9985693361856</v>
+        <v>3.540639</v>
       </c>
       <c r="H14">
-        <v>21.9985693361856</v>
+        <v>10.621917</v>
       </c>
       <c r="I14">
-        <v>0.8151627922314451</v>
+        <v>0.1150430856889177</v>
       </c>
       <c r="J14">
-        <v>0.8151627922314451</v>
+        <v>0.1171915486778959</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.209166423063072</v>
+        <v>0.451749</v>
       </c>
       <c r="N14">
-        <v>0.209166423063072</v>
+        <v>0.903498</v>
       </c>
       <c r="O14">
-        <v>0.00182646371230881</v>
+        <v>0.003821260830374857</v>
       </c>
       <c r="P14">
-        <v>0.00182646371230881</v>
+        <v>0.00287943137621811</v>
       </c>
       <c r="Q14">
-        <v>4.60136206055492</v>
+        <v>1.599480127611</v>
       </c>
       <c r="R14">
-        <v>4.60136206055492</v>
+        <v>9.596880765666</v>
       </c>
       <c r="S14">
-        <v>0.00148886525963506</v>
+        <v>0.0004396096371485194</v>
       </c>
       <c r="T14">
-        <v>0.00148886525963506</v>
+        <v>0.0003374450222907253</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>21.9985693361856</v>
+        <v>3.540639</v>
       </c>
       <c r="H15">
-        <v>21.9985693361856</v>
+        <v>10.621917</v>
       </c>
       <c r="I15">
-        <v>0.8151627922314451</v>
+        <v>0.1150430856889177</v>
       </c>
       <c r="J15">
-        <v>0.8151627922314451</v>
+        <v>0.1171915486778959</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>27.9188300643417</v>
+        <v>29.738655</v>
       </c>
       <c r="N15">
-        <v>27.9188300643417</v>
+        <v>89.21596500000001</v>
       </c>
       <c r="O15">
-        <v>0.243790228163246</v>
+        <v>0.2515537555136401</v>
       </c>
       <c r="P15">
-        <v>0.243790228163246</v>
+        <v>0.2843296264967678</v>
       </c>
       <c r="Q15">
-        <v>614.174318955604</v>
+        <v>105.293841700545</v>
       </c>
       <c r="R15">
-        <v>614.174318955604</v>
+        <v>947.6445753049051</v>
       </c>
       <c r="S15">
-        <v>0.1987287231082926</v>
+        <v>0.02893952025092474</v>
       </c>
       <c r="T15">
-        <v>0.1987287231082926</v>
+        <v>0.03332102926416392</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>21.9985693361856</v>
+        <v>3.540639</v>
       </c>
       <c r="H16">
-        <v>21.9985693361856</v>
+        <v>10.621917</v>
       </c>
       <c r="I16">
-        <v>0.8151627922314451</v>
+        <v>0.1150430856889177</v>
       </c>
       <c r="J16">
-        <v>0.8151627922314451</v>
+        <v>0.1171915486778959</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>22.8443971128282</v>
+        <v>22.95118433333333</v>
       </c>
       <c r="N16">
-        <v>22.8443971128282</v>
+        <v>68.85355300000001</v>
       </c>
       <c r="O16">
-        <v>0.199479733626134</v>
+        <v>0.194139802641909</v>
       </c>
       <c r="P16">
-        <v>0.199479733626134</v>
+        <v>0.2194349969477482</v>
       </c>
       <c r="Q16">
-        <v>502.5440538299093</v>
+        <v>81.261858346789</v>
       </c>
       <c r="R16">
-        <v>502.5440538299093</v>
+        <v>731.356725121101</v>
       </c>
       <c r="S16">
-        <v>0.1626084566562643</v>
+        <v>0.0223344419509627</v>
       </c>
       <c r="T16">
-        <v>0.1626084566562643</v>
+        <v>0.02571592712643596</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>21.9985693361856</v>
+        <v>3.540639</v>
       </c>
       <c r="H17">
-        <v>21.9985693361856</v>
+        <v>10.621917</v>
       </c>
       <c r="I17">
-        <v>0.8151627922314451</v>
+        <v>0.1150430856889177</v>
       </c>
       <c r="J17">
-        <v>0.8151627922314451</v>
+        <v>0.1171915486778959</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.8604766766159</v>
+        <v>23.37486266666667</v>
       </c>
       <c r="N17">
-        <v>22.8604766766159</v>
+        <v>70.124588</v>
       </c>
       <c r="O17">
-        <v>0.1996201421072751</v>
+        <v>0.1977236189200749</v>
       </c>
       <c r="P17">
-        <v>0.1996201421072751</v>
+        <v>0.2234857619292659</v>
       </c>
       <c r="Q17">
-        <v>502.8977812287886</v>
+        <v>82.76195037724401</v>
       </c>
       <c r="R17">
-        <v>502.8977812287886</v>
+        <v>744.857553395196</v>
       </c>
       <c r="S17">
-        <v>0.1627229124258042</v>
+        <v>0.02274673523414508</v>
       </c>
       <c r="T17">
-        <v>0.1627229124258042</v>
+        <v>0.02619064254795022</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>21.9985693361856</v>
+        <v>3.540639</v>
       </c>
       <c r="H18">
-        <v>21.9985693361856</v>
+        <v>10.621917</v>
       </c>
       <c r="I18">
-        <v>0.8151627922314451</v>
+        <v>0.1150430856889177</v>
       </c>
       <c r="J18">
-        <v>0.8151627922314451</v>
+        <v>0.1171915486778959</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.14058632203313</v>
+        <v>1.272071333333334</v>
       </c>
       <c r="N18">
-        <v>1.14058632203313</v>
+        <v>3.816214</v>
       </c>
       <c r="O18">
-        <v>0.00995972249007243</v>
+        <v>0.01076021498555478</v>
       </c>
       <c r="P18">
-        <v>0.00995972249007243</v>
+        <v>0.01216220326991628</v>
       </c>
       <c r="Q18">
-        <v>25.09126728915073</v>
+        <v>4.503945373582001</v>
       </c>
       <c r="R18">
-        <v>25.09126728915073</v>
+        <v>40.53550836223801</v>
       </c>
       <c r="S18">
-        <v>0.008118795194857762</v>
+        <v>0.001237888334614354</v>
       </c>
       <c r="T18">
-        <v>0.008118795194857762</v>
+        <v>0.001425307436536858</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>21.9985693361856</v>
+        <v>3.540639</v>
       </c>
       <c r="H19">
-        <v>21.9985693361856</v>
+        <v>10.621917</v>
       </c>
       <c r="I19">
-        <v>0.8151627922314451</v>
+        <v>0.1150430856889177</v>
       </c>
       <c r="J19">
-        <v>0.8151627922314451</v>
+        <v>0.1171915486778959</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>39.5464332042761</v>
+        <v>40.4313585</v>
       </c>
       <c r="N19">
-        <v>39.5464332042761</v>
+        <v>80.862717</v>
       </c>
       <c r="O19">
-        <v>0.3453237099009637</v>
+        <v>0.3420013471084464</v>
       </c>
       <c r="P19">
-        <v>0.3453237099009637</v>
+        <v>0.2577079799800835</v>
       </c>
       <c r="Q19">
-        <v>869.9649528431003</v>
+        <v>143.1528447280815</v>
       </c>
       <c r="R19">
-        <v>869.9649528431003</v>
+        <v>858.917068368489</v>
       </c>
       <c r="S19">
-        <v>0.2814950395865911</v>
+        <v>0.03934489028112227</v>
       </c>
       <c r="T19">
-        <v>0.2814950395865911</v>
+        <v>0.03020119728051818</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.22496521825007</v>
+        <v>23.42392733333334</v>
       </c>
       <c r="H20">
-        <v>1.22496521825007</v>
+        <v>70.271782</v>
       </c>
       <c r="I20">
-        <v>0.04539140943373137</v>
+        <v>0.761094502822696</v>
       </c>
       <c r="J20">
-        <v>0.04539140943373137</v>
+        <v>0.7753081633885378</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.209166423063072</v>
+        <v>0.451749</v>
       </c>
       <c r="N20">
-        <v>0.209166423063072</v>
+        <v>0.903498</v>
       </c>
       <c r="O20">
-        <v>0.00182646371230881</v>
+        <v>0.003821260830374857</v>
       </c>
       <c r="P20">
-        <v>0.00182646371230881</v>
+        <v>0.00287943137621811</v>
       </c>
       <c r="Q20">
-        <v>0.2562215930780425</v>
+        <v>10.581735748906</v>
       </c>
       <c r="R20">
-        <v>0.2562215930780425</v>
+        <v>63.49041449343601</v>
       </c>
       <c r="S20">
-        <v>8.290576218126215E-05</v>
+        <v>0.002908340611849994</v>
       </c>
       <c r="T20">
-        <v>8.290576218126215E-05</v>
+        <v>0.002232446651898993</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.22496521825007</v>
+        <v>23.42392733333334</v>
       </c>
       <c r="H21">
-        <v>1.22496521825007</v>
+        <v>70.271782</v>
       </c>
       <c r="I21">
-        <v>0.04539140943373137</v>
+        <v>0.761094502822696</v>
       </c>
       <c r="J21">
-        <v>0.04539140943373137</v>
+        <v>0.7753081633885378</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>27.9188300643417</v>
+        <v>29.738655</v>
       </c>
       <c r="N21">
-        <v>27.9188300643417</v>
+        <v>89.21596500000001</v>
       </c>
       <c r="O21">
-        <v>0.243790228163246</v>
+        <v>0.2515537555136401</v>
       </c>
       <c r="P21">
-        <v>0.243790228163246</v>
+        <v>0.2843296264967678</v>
       </c>
       <c r="Q21">
-        <v>34.19959576305295</v>
+        <v>696.5960937110701</v>
       </c>
       <c r="R21">
-        <v>34.19959576305295</v>
+        <v>6269.364843399631</v>
       </c>
       <c r="S21">
-        <v>0.01106598206250069</v>
+        <v>0.1914561804858359</v>
       </c>
       <c r="T21">
-        <v>0.01106598206250069</v>
+        <v>0.220443080516158</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.22496521825007</v>
+        <v>23.42392733333334</v>
       </c>
       <c r="H22">
-        <v>1.22496521825007</v>
+        <v>70.271782</v>
       </c>
       <c r="I22">
-        <v>0.04539140943373137</v>
+        <v>0.761094502822696</v>
       </c>
       <c r="J22">
-        <v>0.04539140943373137</v>
+        <v>0.7753081633885378</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>22.8443971128282</v>
+        <v>22.95118433333333</v>
       </c>
       <c r="N22">
-        <v>22.8443971128282</v>
+        <v>68.85355300000001</v>
       </c>
       <c r="O22">
-        <v>0.199479733626134</v>
+        <v>0.194139802641909</v>
       </c>
       <c r="P22">
-        <v>0.199479733626134</v>
+        <v>0.2194349969477482</v>
       </c>
       <c r="Q22">
-        <v>27.98359189510687</v>
+        <v>537.6068740379385</v>
       </c>
       <c r="R22">
-        <v>27.98359189510687</v>
+        <v>4838.461866341447</v>
       </c>
       <c r="S22">
-        <v>0.009054666262755522</v>
+        <v>0.14775873656984</v>
       </c>
       <c r="T22">
-        <v>0.009054666262755522</v>
+        <v>0.170129744466728</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.22496521825007</v>
+        <v>23.42392733333334</v>
       </c>
       <c r="H23">
-        <v>1.22496521825007</v>
+        <v>70.271782</v>
       </c>
       <c r="I23">
-        <v>0.04539140943373137</v>
+        <v>0.761094502822696</v>
       </c>
       <c r="J23">
-        <v>0.04539140943373137</v>
+        <v>0.7753081633885378</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>22.8604766766159</v>
+        <v>23.37486266666667</v>
       </c>
       <c r="N23">
-        <v>22.8604766766159</v>
+        <v>70.124588</v>
       </c>
       <c r="O23">
-        <v>0.1996201421072751</v>
+        <v>0.1977236189200749</v>
       </c>
       <c r="P23">
-        <v>0.1996201421072751</v>
+        <v>0.2234857619292659</v>
       </c>
       <c r="Q23">
-        <v>28.00328880147143</v>
+        <v>547.5310845306464</v>
       </c>
       <c r="R23">
-        <v>28.00328880147143</v>
+        <v>4927.779760775817</v>
       </c>
       <c r="S23">
-        <v>0.009061039601610962</v>
+        <v>0.1504863594382786</v>
       </c>
       <c r="T23">
-        <v>0.009061039601610962</v>
+        <v>0.1732703356248672</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.22496521825007</v>
+        <v>23.42392733333334</v>
       </c>
       <c r="H24">
-        <v>1.22496521825007</v>
+        <v>70.271782</v>
       </c>
       <c r="I24">
-        <v>0.04539140943373137</v>
+        <v>0.761094502822696</v>
       </c>
       <c r="J24">
-        <v>0.04539140943373137</v>
+        <v>0.7753081633885378</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.14058632203313</v>
+        <v>1.272071333333334</v>
       </c>
       <c r="N24">
-        <v>1.14058632203313</v>
+        <v>3.816214</v>
       </c>
       <c r="O24">
-        <v>0.00995972249007243</v>
+        <v>0.01076021498555478</v>
       </c>
       <c r="P24">
-        <v>0.00995972249007243</v>
+        <v>0.01216220326991628</v>
       </c>
       <c r="Q24">
-        <v>1.397178572902358</v>
+        <v>29.79690647481645</v>
       </c>
       <c r="R24">
-        <v>1.397178572902358</v>
+        <v>268.172158273348</v>
       </c>
       <c r="S24">
-        <v>0.0004520858413932202</v>
+        <v>0.008189540474696137</v>
       </c>
       <c r="T24">
-        <v>0.0004520858413932202</v>
+        <v>0.009429455479956859</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.22496521825007</v>
+        <v>23.42392733333334</v>
       </c>
       <c r="H25">
-        <v>1.22496521825007</v>
+        <v>70.271782</v>
       </c>
       <c r="I25">
-        <v>0.04539140943373137</v>
+        <v>0.761094502822696</v>
       </c>
       <c r="J25">
-        <v>0.04539140943373137</v>
+        <v>0.7753081633885378</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>39.5464332042761</v>
+        <v>40.4313585</v>
       </c>
       <c r="N25">
-        <v>39.5464332042761</v>
+        <v>80.862717</v>
       </c>
       <c r="O25">
-        <v>0.3453237099009637</v>
+        <v>0.3420013471084464</v>
       </c>
       <c r="P25">
-        <v>0.3453237099009637</v>
+        <v>0.2577079799800835</v>
       </c>
       <c r="Q25">
-        <v>48.44300518108789</v>
+        <v>947.0612034919491</v>
       </c>
       <c r="R25">
-        <v>48.44300518108789</v>
+        <v>5682.367220951694</v>
       </c>
       <c r="S25">
-        <v>0.01567472990328972</v>
+        <v>0.2602953452421953</v>
       </c>
       <c r="T25">
-        <v>0.01567472990328972</v>
+        <v>0.1998031006489286</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.02960683953876</v>
+        <v>1.243757666666667</v>
       </c>
       <c r="H26">
-        <v>1.02960683953876</v>
+        <v>3.731273</v>
       </c>
       <c r="I26">
-        <v>0.03815235315500464</v>
+        <v>0.04041240008444284</v>
       </c>
       <c r="J26">
-        <v>0.03815235315500464</v>
+        <v>0.04116711337605242</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.209166423063072</v>
+        <v>0.451749</v>
       </c>
       <c r="N26">
-        <v>0.209166423063072</v>
+        <v>0.903498</v>
       </c>
       <c r="O26">
-        <v>0.00182646371230881</v>
+        <v>0.003821260830374857</v>
       </c>
       <c r="P26">
-        <v>0.00182646371230881</v>
+        <v>0.00287943137621811</v>
       </c>
       <c r="Q26">
-        <v>0.2153591797875968</v>
+        <v>0.5618662821589999</v>
       </c>
       <c r="R26">
-        <v>0.2153591797875968</v>
+        <v>3.371197692954</v>
       </c>
       <c r="S26">
-        <v>6.968388857680653E-05</v>
+        <v>0.000154426321504119</v>
       </c>
       <c r="T26">
-        <v>6.968388857680653E-05</v>
+        <v>0.0001185378779233336</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.02960683953876</v>
+        <v>1.243757666666667</v>
       </c>
       <c r="H27">
-        <v>1.02960683953876</v>
+        <v>3.731273</v>
       </c>
       <c r="I27">
-        <v>0.03815235315500464</v>
+        <v>0.04041240008444284</v>
       </c>
       <c r="J27">
-        <v>0.03815235315500464</v>
+        <v>0.04116711337605242</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>27.9188300643417</v>
+        <v>29.738655</v>
       </c>
       <c r="N27">
-        <v>27.9188300643417</v>
+        <v>89.21596500000001</v>
       </c>
       <c r="O27">
-        <v>0.243790228163246</v>
+        <v>0.2515537555136401</v>
       </c>
       <c r="P27">
-        <v>0.243790228163246</v>
+        <v>0.2843296264967678</v>
       </c>
       <c r="Q27">
-        <v>28.74541838616658</v>
+        <v>36.987680152605</v>
       </c>
       <c r="R27">
-        <v>28.74541838616658</v>
+        <v>332.8891213734451</v>
       </c>
       <c r="S27">
-        <v>0.009301170880623318</v>
+        <v>0.01016589101056134</v>
       </c>
       <c r="T27">
-        <v>0.009301170880623318</v>
+        <v>0.01170502997016308</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.02960683953876</v>
+        <v>1.243757666666667</v>
       </c>
       <c r="H28">
-        <v>1.02960683953876</v>
+        <v>3.731273</v>
       </c>
       <c r="I28">
-        <v>0.03815235315500464</v>
+        <v>0.04041240008444284</v>
       </c>
       <c r="J28">
-        <v>0.03815235315500464</v>
+        <v>0.04116711337605242</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>22.8443971128282</v>
+        <v>22.95118433333333</v>
       </c>
       <c r="N28">
-        <v>22.8443971128282</v>
+        <v>68.85355300000001</v>
       </c>
       <c r="O28">
-        <v>0.199479733626134</v>
+        <v>0.194139802641909</v>
       </c>
       <c r="P28">
-        <v>0.199479733626134</v>
+        <v>0.2194349969477482</v>
       </c>
       <c r="Q28">
-        <v>23.52074751250742</v>
+        <v>28.54571147366322</v>
       </c>
       <c r="R28">
-        <v>23.52074751250742</v>
+        <v>256.911403262969</v>
       </c>
       <c r="S28">
-        <v>0.00761062124457052</v>
+        <v>0.007845655376679599</v>
       </c>
       <c r="T28">
-        <v>0.00761062124457052</v>
+        <v>0.009033505398021665</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.02960683953876</v>
+        <v>1.243757666666667</v>
       </c>
       <c r="H29">
-        <v>1.02960683953876</v>
+        <v>3.731273</v>
       </c>
       <c r="I29">
-        <v>0.03815235315500464</v>
+        <v>0.04041240008444284</v>
       </c>
       <c r="J29">
-        <v>0.03815235315500464</v>
+        <v>0.04116711337605242</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>22.8604766766159</v>
+        <v>23.37486266666667</v>
       </c>
       <c r="N29">
-        <v>22.8604766766159</v>
+        <v>70.124588</v>
       </c>
       <c r="O29">
-        <v>0.1996201421072751</v>
+        <v>0.1977236189200749</v>
       </c>
       <c r="P29">
-        <v>0.1996201421072751</v>
+        <v>0.2234857619292659</v>
       </c>
       <c r="Q29">
-        <v>23.53730314136003</v>
+        <v>29.07266464894711</v>
       </c>
       <c r="R29">
-        <v>23.53730314136003</v>
+        <v>261.653981840524</v>
       </c>
       <c r="S29">
-        <v>0.00761597815852897</v>
+        <v>0.007990485993941979</v>
       </c>
       <c r="T29">
-        <v>0.00761597815852897</v>
+        <v>0.009200263699275551</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.02960683953876</v>
+        <v>1.243757666666667</v>
       </c>
       <c r="H30">
-        <v>1.02960683953876</v>
+        <v>3.731273</v>
       </c>
       <c r="I30">
-        <v>0.03815235315500464</v>
+        <v>0.04041240008444284</v>
       </c>
       <c r="J30">
-        <v>0.03815235315500464</v>
+        <v>0.04116711337605242</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.14058632203313</v>
+        <v>1.272071333333334</v>
       </c>
       <c r="N30">
-        <v>1.14058632203313</v>
+        <v>3.816214</v>
       </c>
       <c r="O30">
-        <v>0.00995972249007243</v>
+        <v>0.01076021498555478</v>
       </c>
       <c r="P30">
-        <v>0.00995972249007243</v>
+        <v>0.01216220326991628</v>
       </c>
       <c r="Q30">
-        <v>1.174355478249669</v>
+        <v>1.582148473380222</v>
       </c>
       <c r="R30">
-        <v>1.174355478249669</v>
+        <v>14.239336260422</v>
       </c>
       <c r="S30">
-        <v>0.0003799868497670855</v>
+        <v>0.000434846112990857</v>
       </c>
       <c r="T30">
-        <v>0.0003799868497670855</v>
+        <v>0.0005006828009152389</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.243757666666667</v>
+      </c>
+      <c r="H31">
+        <v>3.731273</v>
+      </c>
+      <c r="I31">
+        <v>0.04041240008444284</v>
+      </c>
+      <c r="J31">
+        <v>0.04116711337605242</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>40.4313585</v>
+      </c>
+      <c r="N31">
+        <v>80.862717</v>
+      </c>
+      <c r="O31">
+        <v>0.3420013471084464</v>
+      </c>
+      <c r="P31">
+        <v>0.2577079799800835</v>
+      </c>
+      <c r="Q31">
+        <v>50.2868121081235</v>
+      </c>
+      <c r="R31">
+        <v>301.720872648741</v>
+      </c>
+      <c r="S31">
+        <v>0.01382109526876494</v>
+      </c>
+      <c r="T31">
+        <v>0.01060909362975355</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1.045475</v>
+      </c>
+      <c r="H32">
+        <v>2.09095</v>
+      </c>
+      <c r="I32">
+        <v>0.03396976365300761</v>
+      </c>
+      <c r="J32">
+        <v>0.02306943922721731</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.451749</v>
+      </c>
+      <c r="N32">
+        <v>0.903498</v>
+      </c>
+      <c r="O32">
+        <v>0.003821260830374857</v>
+      </c>
+      <c r="P32">
+        <v>0.00287943137621811</v>
+      </c>
+      <c r="Q32">
+        <v>0.4722922857750001</v>
+      </c>
+      <c r="R32">
+        <v>1.8891691431</v>
+      </c>
+      <c r="S32">
+        <v>0.0001298073272643295</v>
+      </c>
+      <c r="T32">
+        <v>6.642686714260638E-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1.045475</v>
+      </c>
+      <c r="H33">
+        <v>2.09095</v>
+      </c>
+      <c r="I33">
+        <v>0.03396976365300761</v>
+      </c>
+      <c r="J33">
+        <v>0.02306943922721731</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>29.738655</v>
+      </c>
+      <c r="N33">
+        <v>89.21596500000001</v>
+      </c>
+      <c r="O33">
+        <v>0.2515537555136401</v>
+      </c>
+      <c r="P33">
+        <v>0.2843296264967678</v>
+      </c>
+      <c r="Q33">
+        <v>31.09102033612501</v>
+      </c>
+      <c r="R33">
+        <v>186.54612201675</v>
+      </c>
+      <c r="S33">
+        <v>0.008545221620824814</v>
+      </c>
+      <c r="T33">
+        <v>0.006559325038964582</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1.045475</v>
+      </c>
+      <c r="H34">
+        <v>2.09095</v>
+      </c>
+      <c r="I34">
+        <v>0.03396976365300761</v>
+      </c>
+      <c r="J34">
+        <v>0.02306943922721731</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>22.95118433333333</v>
+      </c>
+      <c r="N34">
+        <v>68.85355300000001</v>
+      </c>
+      <c r="O34">
+        <v>0.194139802641909</v>
+      </c>
+      <c r="P34">
+        <v>0.2194349969477482</v>
+      </c>
+      <c r="Q34">
+        <v>23.99488944089167</v>
+      </c>
+      <c r="R34">
+        <v>143.96933664535</v>
+      </c>
+      <c r="S34">
+        <v>0.00659488321138719</v>
+      </c>
+      <c r="T34">
+        <v>0.005062242326410693</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1.045475</v>
+      </c>
+      <c r="H35">
+        <v>2.09095</v>
+      </c>
+      <c r="I35">
+        <v>0.03396976365300761</v>
+      </c>
+      <c r="J35">
+        <v>0.02306943922721731</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>23.37486266666667</v>
+      </c>
+      <c r="N35">
+        <v>70.124588</v>
+      </c>
+      <c r="O35">
+        <v>0.1977236189200749</v>
+      </c>
+      <c r="P35">
+        <v>0.2234857619292659</v>
+      </c>
+      <c r="Q35">
+        <v>24.43783454643334</v>
+      </c>
+      <c r="R35">
+        <v>146.6270072786</v>
+      </c>
+      <c r="S35">
+        <v>0.006716624603332288</v>
+      </c>
+      <c r="T35">
+        <v>0.005155691202975557</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>1.02960683953876</v>
-      </c>
-      <c r="H31">
-        <v>1.02960683953876</v>
-      </c>
-      <c r="I31">
-        <v>0.03815235315500464</v>
-      </c>
-      <c r="J31">
-        <v>0.03815235315500464</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>39.5464332042761</v>
-      </c>
-      <c r="N31">
-        <v>39.5464332042761</v>
-      </c>
-      <c r="O31">
-        <v>0.3453237099009637</v>
-      </c>
-      <c r="P31">
-        <v>0.3453237099009637</v>
-      </c>
-      <c r="Q31">
-        <v>40.7172781064854</v>
-      </c>
-      <c r="R31">
-        <v>40.7172781064854</v>
-      </c>
-      <c r="S31">
-        <v>0.01317491213293794</v>
-      </c>
-      <c r="T31">
-        <v>0.01317491213293794</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1.045475</v>
+      </c>
+      <c r="H36">
+        <v>2.09095</v>
+      </c>
+      <c r="I36">
+        <v>0.03396976365300761</v>
+      </c>
+      <c r="J36">
+        <v>0.02306943922721731</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1.272071333333334</v>
+      </c>
+      <c r="N36">
+        <v>3.816214</v>
+      </c>
+      <c r="O36">
+        <v>0.01076021498555478</v>
+      </c>
+      <c r="P36">
+        <v>0.01216220326991628</v>
+      </c>
+      <c r="Q36">
+        <v>1.329918777216667</v>
+      </c>
+      <c r="R36">
+        <v>7.979512663300002</v>
+      </c>
+      <c r="S36">
+        <v>0.0003655219599148465</v>
+      </c>
+      <c r="T36">
+        <v>0.0002805752092043973</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1.045475</v>
+      </c>
+      <c r="H37">
+        <v>2.09095</v>
+      </c>
+      <c r="I37">
+        <v>0.03396976365300761</v>
+      </c>
+      <c r="J37">
+        <v>0.02306943922721731</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>40.4313585</v>
+      </c>
+      <c r="N37">
+        <v>80.862717</v>
+      </c>
+      <c r="O37">
+        <v>0.3420013471084464</v>
+      </c>
+      <c r="P37">
+        <v>0.2577079799800835</v>
+      </c>
+      <c r="Q37">
+        <v>42.26997452778751</v>
+      </c>
+      <c r="R37">
+        <v>169.07989811115</v>
+      </c>
+      <c r="S37">
+        <v>0.01161770493028414</v>
+      </c>
+      <c r="T37">
+        <v>0.005945178582519473</v>
       </c>
     </row>
   </sheetData>
